--- a/Data/Recall per State.xlsx
+++ b/Data/Recall per State.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2580" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="$produced per state" sheetId="2" r:id="rId1"/>
-    <sheet name="Normalized Values" sheetId="4" r:id="rId2"/>
+    <sheet name="States" sheetId="6" r:id="rId1"/>
+    <sheet name="$produced per state" sheetId="2" r:id="rId2"/>
+    <sheet name="Normalized Values By $" sheetId="4" r:id="rId3"/>
+    <sheet name="Normalized Values By Farmland" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="167">
   <si>
     <t>Country</t>
   </si>
@@ -357,10 +359,175 @@
     <t>State receipts for all commodities ($1000)</t>
   </si>
   <si>
-    <t>for every dollar x recalls</t>
-  </si>
-  <si>
-    <t>State receipts for all commodities ($ million)</t>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Total acres</t>
+  </si>
+  <si>
+    <t>Farmland</t>
+  </si>
+  <si>
+    <t>Avg. acres</t>
+  </si>
+  <si>
+    <t>ALABAMA</t>
+  </si>
+  <si>
+    <t>ALASKA</t>
+  </si>
+  <si>
+    <t>ARIZONA</t>
+  </si>
+  <si>
+    <t>ARKANSAS</t>
+  </si>
+  <si>
+    <t>CALIFORNIA</t>
+  </si>
+  <si>
+    <t>COLORADO</t>
+  </si>
+  <si>
+    <t>CONNECTICUT</t>
+  </si>
+  <si>
+    <t>DELAWARE</t>
+  </si>
+  <si>
+    <t>FLORIDA</t>
+  </si>
+  <si>
+    <t>GEORGIA</t>
+  </si>
+  <si>
+    <t>HAWAII</t>
+  </si>
+  <si>
+    <t>IDAHO</t>
+  </si>
+  <si>
+    <t>ILLINOIS</t>
+  </si>
+  <si>
+    <t>INDIANA</t>
+  </si>
+  <si>
+    <t>IOWA</t>
+  </si>
+  <si>
+    <t>KANSAS</t>
+  </si>
+  <si>
+    <t>KENTUCKY</t>
+  </si>
+  <si>
+    <t>LOUISIANA</t>
+  </si>
+  <si>
+    <t>MAINE</t>
+  </si>
+  <si>
+    <t>MARYLAND</t>
+  </si>
+  <si>
+    <t>MASSACHUSETTS</t>
+  </si>
+  <si>
+    <t>MICHIGAN</t>
+  </si>
+  <si>
+    <t>MINNESOTA</t>
+  </si>
+  <si>
+    <t>MISSISSIPPI</t>
+  </si>
+  <si>
+    <t>MISSOURI</t>
+  </si>
+  <si>
+    <t>MONTANA</t>
+  </si>
+  <si>
+    <t>NEBRASKA</t>
+  </si>
+  <si>
+    <t>NEVADA</t>
+  </si>
+  <si>
+    <t>NEW HAMPSHIRE</t>
+  </si>
+  <si>
+    <t>NEW JERSEY</t>
+  </si>
+  <si>
+    <t>NEW MEXICO</t>
+  </si>
+  <si>
+    <t>NEW YORK</t>
+  </si>
+  <si>
+    <t>NORTH CAROLINA</t>
+  </si>
+  <si>
+    <t>NORTH DAKOTA</t>
+  </si>
+  <si>
+    <t>OHIO</t>
+  </si>
+  <si>
+    <t>OKLAHOMA</t>
+  </si>
+  <si>
+    <t>OREGON</t>
+  </si>
+  <si>
+    <t>PENNSYLVANIA</t>
+  </si>
+  <si>
+    <t>RHODE ISLAND</t>
+  </si>
+  <si>
+    <t>SOUTH CAROLINA</t>
+  </si>
+  <si>
+    <t>SOUTH DAKOTA</t>
+  </si>
+  <si>
+    <t>TENNESSEE</t>
+  </si>
+  <si>
+    <t>TEXAS</t>
+  </si>
+  <si>
+    <t>UTAH</t>
+  </si>
+  <si>
+    <t>VERMONT</t>
+  </si>
+  <si>
+    <t>VIRGINIA</t>
+  </si>
+  <si>
+    <t>WASHINGTON</t>
+  </si>
+  <si>
+    <t>WEST VIRGINIA</t>
+  </si>
+  <si>
+    <t>WISCONSIN</t>
+  </si>
+  <si>
+    <t>WYOMING</t>
+  </si>
+  <si>
+    <t>State receipts for all commodities ($1mill)</t>
+  </si>
+  <si>
+    <t>X recalls per acre</t>
+  </si>
+  <si>
+    <t>every dollar causes x recalls</t>
   </si>
 </sst>
 </file>
@@ -368,9 +535,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="#,##0.0000000000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,6 +561,32 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFAA0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -422,7 +615,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -445,11 +638,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFCCEEFF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCCEEFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF0000AA"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0000AA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
@@ -483,10 +712,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -535,12 +807,778 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Recalls Vs Income Produced for Agriculture</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Normalized Values By $'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of Records</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Normalized Values By $'!$D$2:$D$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>33.905000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4951.0749999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8214.5939999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4155.4219999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46036.034</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6128.7190000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>514.25599999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1205.6469999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7743.9750000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8430.2540000000008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>648.55899999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26529.032999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7109.9260000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16096.415000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10119.296</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15355.365</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5443.6369999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2823.3560000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>386.87900000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2094.2469999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>527.73</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7417.0379999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17094.651999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8900.0779999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5206.8360000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3677.6019999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10536.714</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8114.62</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21522.236000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>209.93899999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1024.8389999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2861.6869999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>596.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5052.76</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8364.9779999999992</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6189.7250000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4593.5919999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6346.683</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>72.08</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2119.4839999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9351.7929999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3297.5479999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20897.606</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1657.8340000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3334.1260000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>785.93399999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9917.7900000000009</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10759.486999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>690.10699999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1392.0260000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Normalized Values By $'!$E$2:$E$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0">
+                  <c:v>1634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-30D9-4246-BD2C-5432CA63F64B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="456269968"/>
+        <c:axId val="456268984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="456269968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Income</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Produced from Agriculture ($mill)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456268984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="456268984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Recalls</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456269968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Amount</a:t>
+              <a:t>Recalls</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> of Money Produced in Relation to Number of Recalls, per State</a:t>
+              <a:t> Normalized by area of Farmland, by State</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -652,7 +1690,166 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Normalized Values'!$C$2:$C$51</c:f>
+              <c:f>'Normalized Values By Farmland'!$F$2:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>8712000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>900240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26397600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14392500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26719000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30900000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>361200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>529000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10105000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10682000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1298000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11800000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27521000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15002900</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31664100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47214000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13770000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7860800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1368000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2044900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>518500</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10108000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27610800</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11056400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30104000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>60088000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45885000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6300000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>448800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>821700</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44695000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7596000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8996000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39390000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14609700</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>33734000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17200000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7682400</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>60350</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4855600</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43797600</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11560000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>130072000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11597400</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1248000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8597500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>15190000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3598400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15529500</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>34435600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Normalized Values By Farmland'!$I$2:$I$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -805,165 +2002,6 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Normalized Values'!$D$2:$D$51</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>33.905000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4951.0749999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8214.5939999999991</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4155.4219999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>46036.034</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6128.7190000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>514.25599999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1205.6469999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7743.9750000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8430.2540000000008</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>648.55899999999997</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>26529.032999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7109.9260000000004</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16096.415000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10119.296</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15355.365</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5443.6369999999997</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2823.3560000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>386.87900000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2094.2469999999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>527.73</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7417.0379999999996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>17094.651999999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8900.0779999999995</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5206.8360000000002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3677.6019999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10536.714</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8114.62</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>21522.236000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>209.93899999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1024.8389999999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2861.6869999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>596.25</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5052.76</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8364.9779999999992</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6189.7250000000004</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4593.5919999999996</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6346.683</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>72.08</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2119.4839999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9351.7929999999997</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3297.5479999999998</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>20897.606</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1657.8340000000001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3334.1260000000002</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>785.93399999999997</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>9917.7900000000009</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>10759.486999999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>690.10699999999997</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1392.0260000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -971,7 +2009,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3697-4ACC-A286-F24367F8F457}"/>
+              <c16:uniqueId val="{00000000-D460-4E2C-A7B9-50BA0C899766}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -983,11 +2021,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="636504400"/>
-        <c:axId val="636504728"/>
+        <c:axId val="452166864"/>
+        <c:axId val="452167192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="636504400"/>
+        <c:axId val="452166864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1014,13 +2052,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Number</a:t>
+                  <a:t>Amount of Farmland</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> of recalls</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1034,6 +2067,123 @@
           </c:spPr>
           <c:txPr>
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="452167192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="452167192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Recalls</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1090,129 +2240,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="636504728"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="636504728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Million Dollars</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> Produced from Agriculture</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="636504400"/>
+        <c:crossAx val="452166864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1262,6 +2290,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1817,27 +2885,584 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>933450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F77D33-BFCC-4A20-A665-B58B7D0C54E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F93DE4BF-A1C4-49F6-A1E9-069DC6F1878E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CEFCBC8-1F48-46B4-9591-613A229864E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2155,10 +3780,432 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:B50">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,9 +4218,10 @@
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="61.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>103</v>
       </c>
@@ -2198,8 +4246,11 @@
       <c r="H1" s="7" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>50</v>
       </c>
@@ -2224,8 +4275,11 @@
       <c r="H2" s="3">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>33.905000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>27</v>
       </c>
@@ -2250,8 +4304,11 @@
       <c r="H3" s="3">
         <v>1.389</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>4951.0749999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>16</v>
       </c>
@@ -2276,8 +4333,11 @@
       <c r="H4" s="3">
         <v>2.3039999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>8214.5939999999991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>29</v>
       </c>
@@ -2302,8 +4362,11 @@
       <c r="H5" s="3">
         <v>1.1659999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>4155.4219999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -2328,8 +4391,11 @@
       <c r="H6" s="3">
         <v>12.912000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>46036.034</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>23</v>
       </c>
@@ -2354,8 +4420,11 @@
       <c r="H7" s="3">
         <v>1.7190000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>6128.7190000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>46</v>
       </c>
@@ -2380,8 +4449,11 @@
       <c r="H8" s="3">
         <v>0.14399999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>514.25599999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>39</v>
       </c>
@@ -2406,8 +4478,11 @@
       <c r="H9" s="3">
         <v>0.33800000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>1205.6469999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>18</v>
       </c>
@@ -2432,8 +4507,11 @@
       <c r="H10" s="3">
         <v>2.1720000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>7743.9750000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>14</v>
       </c>
@@ -2458,8 +4536,11 @@
       <c r="H11" s="3">
         <v>2.3639999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>8430.2540000000008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>43</v>
       </c>
@@ -2484,8 +4565,11 @@
       <c r="H12" s="3">
         <v>0.182</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>648.55899999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -2510,8 +4594,11 @@
       <c r="H13" s="3">
         <v>7.4409999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>26529.032999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>20</v>
       </c>
@@ -2537,8 +4624,11 @@
       <c r="H14" s="3">
         <v>1.994</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>7109.9260000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>6</v>
       </c>
@@ -2563,8 +4653,11 @@
       <c r="H15" s="3">
         <v>4.5149999999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>16096.415000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>10</v>
       </c>
@@ -2589,8 +4682,11 @@
       <c r="H16" s="3">
         <v>2.8380000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>10119.296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>7</v>
       </c>
@@ -2615,8 +4711,11 @@
       <c r="H17" s="3">
         <v>4.3070000000000004</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>15355.365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>24</v>
       </c>
@@ -2641,8 +4740,11 @@
       <c r="H18" s="3">
         <v>1.5269999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>5443.6369999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>34</v>
       </c>
@@ -2667,8 +4769,11 @@
       <c r="H19" s="3">
         <v>0.79200000000000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <v>2823.3560000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>47</v>
       </c>
@@ -2693,8 +4798,11 @@
       <c r="H20" s="3">
         <v>0.109</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <v>386.87900000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>36</v>
       </c>
@@ -2719,8 +4827,11 @@
       <c r="H21" s="3">
         <v>0.58699999999999997</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <v>2094.2469999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45</v>
       </c>
@@ -2745,8 +4856,11 @@
       <c r="H22" s="3">
         <v>0.14799999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <v>527.73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -2771,8 +4885,11 @@
       <c r="H23" s="3">
         <v>2.08</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <v>7417.0379999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>5</v>
       </c>
@@ -2797,8 +4914,11 @@
       <c r="H24" s="3">
         <v>4.7949999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <v>17094.651999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>13</v>
       </c>
@@ -2823,8 +4943,11 @@
       <c r="H25" s="3">
         <v>2.496</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <v>8900.0779999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2849,8 +4972,11 @@
       <c r="H26" s="3">
         <v>1.46</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <v>5206.8360000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>30</v>
       </c>
@@ -2875,8 +5001,11 @@
       <c r="H27" s="3">
         <v>1.0309999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <v>3677.6019999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>9</v>
       </c>
@@ -2901,8 +5030,11 @@
       <c r="H28" s="3">
         <v>2.9550000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <v>10536.714</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>17</v>
       </c>
@@ -2927,8 +5059,11 @@
       <c r="H29" s="3">
         <v>2.2759999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <v>8114.62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>3</v>
       </c>
@@ -2953,8 +5088,11 @@
       <c r="H30" s="3">
         <v>6.0369999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <v>21522.236000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>48</v>
       </c>
@@ -2979,8 +5117,11 @@
       <c r="H31" s="3">
         <v>5.8999999999999997E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <v>209.93899999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>40</v>
       </c>
@@ -3005,8 +5146,11 @@
       <c r="H32" s="3">
         <v>0.28699999999999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <v>1024.8389999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>33</v>
       </c>
@@ -3031,8 +5175,11 @@
       <c r="H33" s="3">
         <v>0.80300000000000005</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <v>2861.6869999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>44</v>
       </c>
@@ -3057,8 +5204,11 @@
       <c r="H34" s="3">
         <v>0.16700000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <v>596.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>26</v>
       </c>
@@ -3083,8 +5233,11 @@
       <c r="H35" s="3">
         <v>1.417</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <v>5052.76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>15</v>
       </c>
@@ -3109,8 +5262,11 @@
       <c r="H36" s="3">
         <v>2.3460000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <v>8364.9779999999992</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>22</v>
       </c>
@@ -3135,8 +5291,11 @@
       <c r="H37" s="3">
         <v>1.736</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <v>6189.7250000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>28</v>
       </c>
@@ -3161,8 +5320,11 @@
       <c r="H38" s="3">
         <v>1.288</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <v>4593.5919999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>21</v>
       </c>
@@ -3187,8 +5349,11 @@
       <c r="H39" s="3">
         <v>1.78</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I39">
+        <v>6346.683</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>49</v>
       </c>
@@ -3213,8 +5378,11 @@
       <c r="H40" s="3">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I40">
+        <v>72.08</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>35</v>
       </c>
@@ -3239,8 +5407,11 @@
       <c r="H41" s="3">
         <v>0.59399999999999997</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <v>2119.4839999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>12</v>
       </c>
@@ -3265,8 +5436,11 @@
       <c r="H42" s="3">
         <v>2.6230000000000002</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <v>9351.7929999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>32</v>
       </c>
@@ -3291,8 +5465,11 @@
       <c r="H43" s="3">
         <v>0.92500000000000004</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <v>3297.5479999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>4</v>
       </c>
@@ -3317,8 +5494,11 @@
       <c r="H44" s="3">
         <v>5.8609999999999998</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <v>20897.606</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>37</v>
       </c>
@@ -3343,8 +5523,11 @@
       <c r="H45" s="3">
         <v>0.46500000000000002</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I45">
+        <v>1657.8340000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>31</v>
       </c>
@@ -3369,8 +5552,11 @@
       <c r="H46" s="3">
         <v>0.93500000000000005</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I46">
+        <v>3334.1260000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>41</v>
       </c>
@@ -3395,8 +5581,11 @@
       <c r="H47" s="3">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I47">
+        <v>785.93399999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>11</v>
       </c>
@@ -3421,8 +5610,11 @@
       <c r="H48" s="3">
         <v>2.782</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I48">
+        <v>9917.7900000000009</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>8</v>
       </c>
@@ -3447,8 +5639,11 @@
       <c r="H49" s="3">
         <v>3.0179999999999998</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I49">
+        <v>10759.486999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>42</v>
       </c>
@@ -3473,8 +5668,11 @@
       <c r="H50" s="3">
         <v>0.19400000000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I50">
+        <v>690.10699999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>38</v>
       </c>
@@ -3499,8 +5697,11 @@
       <c r="H51" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <v>1392.0260000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E52">
         <f>SUM(E2:E51)</f>
         <v>99.9</v>
@@ -3515,12 +5716,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3528,997 +5729,2973 @@
     <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="8" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>33.905000000000001</v>
+      </c>
+      <c r="E2" s="9">
         <v>43</v>
       </c>
-      <c r="D2" s="11">
-        <f>'$produced per state'!D2/1000</f>
-        <v>33.905000000000001</v>
-      </c>
-      <c r="E2" s="13">
-        <f>C2/D2</f>
+      <c r="F2" s="13">
+        <f>E2/D2</f>
         <v>1.2682495207196578</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>4951.0749999999998</v>
+      </c>
+      <c r="E3" s="9">
         <v>22</v>
       </c>
-      <c r="D3" s="11">
-        <f>'$produced per state'!D3/1000</f>
-        <v>4951.0749999999998</v>
-      </c>
-      <c r="E3" s="13">
-        <f t="shared" ref="E3:E51" si="0">C3/D3</f>
+      <c r="F3" s="13">
+        <f>E3/D3</f>
         <v>4.4434794463828562E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>8214.5939999999991</v>
+      </c>
+      <c r="E4" s="9">
         <v>27</v>
       </c>
-      <c r="D4" s="11">
-        <f>'$produced per state'!D4/1000</f>
-        <v>8214.5939999999991</v>
-      </c>
-      <c r="E4" s="13">
-        <f t="shared" si="0"/>
+      <c r="F4" s="13">
+        <f t="shared" ref="F4:F51" si="0">E4/D4</f>
         <v>3.2868331654613732E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>4155.4219999999996</v>
+      </c>
+      <c r="E5" s="9">
         <v>89</v>
       </c>
-      <c r="D5" s="11">
-        <f>'$produced per state'!D5/1000</f>
-        <v>4155.4219999999996</v>
-      </c>
-      <c r="E5" s="13">
+      <c r="F5" s="13">
         <f t="shared" si="0"/>
         <v>2.1417800646961971E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>46036.034</v>
+      </c>
+      <c r="E6" s="11">
         <v>1634</v>
       </c>
-      <c r="D6" s="11">
-        <f>'$produced per state'!D6/1000</f>
-        <v>46036.034</v>
-      </c>
-      <c r="E6" s="13">
+      <c r="F6" s="13">
         <f t="shared" si="0"/>
         <v>3.549393503358695E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>6128.7190000000001</v>
+      </c>
+      <c r="E7" s="9">
         <v>160</v>
       </c>
-      <c r="D7" s="11">
-        <f>'$produced per state'!D7/1000</f>
-        <v>6128.7190000000001</v>
-      </c>
-      <c r="E7" s="13">
+      <c r="F7" s="13">
         <f t="shared" si="0"/>
         <v>2.6106597479832246E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>514.25599999999997</v>
+      </c>
+      <c r="E8" s="9">
         <v>73</v>
       </c>
-      <c r="D8" s="11">
-        <f>'$produced per state'!D8/1000</f>
-        <v>514.25599999999997</v>
-      </c>
-      <c r="E8" s="13">
+      <c r="F8" s="13">
         <f t="shared" si="0"/>
         <v>0.14195264615288883</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>1205.6469999999999</v>
+      </c>
+      <c r="E9" s="9">
         <v>19</v>
       </c>
-      <c r="D9" s="11">
-        <f>'$produced per state'!D9/1000</f>
-        <v>1205.6469999999999</v>
-      </c>
-      <c r="E9" s="13">
+      <c r="F9" s="13">
         <f t="shared" si="0"/>
         <v>1.5759173290357791E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>7743.9750000000004</v>
+      </c>
+      <c r="E10" s="9">
         <v>474</v>
       </c>
-      <c r="D10" s="11">
-        <f>'$produced per state'!D10/1000</f>
-        <v>7743.9750000000004</v>
-      </c>
-      <c r="E10" s="13">
+      <c r="F10" s="13">
         <f t="shared" si="0"/>
         <v>6.1208875286916598E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>8430.2540000000008</v>
+      </c>
+      <c r="E11" s="9">
         <v>203</v>
       </c>
-      <c r="D11" s="11">
-        <f>'$produced per state'!D11/1000</f>
-        <v>8430.2540000000008</v>
-      </c>
-      <c r="E11" s="13">
+      <c r="F11" s="13">
         <f t="shared" si="0"/>
         <v>2.4079938753921292E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>648.55899999999997</v>
+      </c>
+      <c r="E12" s="9">
         <v>47</v>
       </c>
-      <c r="D12" s="11">
-        <f>'$produced per state'!D12/1000</f>
-        <v>648.55899999999997</v>
-      </c>
-      <c r="E12" s="13">
+      <c r="F12" s="13">
         <f t="shared" si="0"/>
         <v>7.2468349063076767E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>26529.032999999999</v>
+      </c>
+      <c r="E13" s="9">
         <v>120</v>
       </c>
-      <c r="D13" s="11">
-        <f>'$produced per state'!D13/1000</f>
-        <v>26529.032999999999</v>
-      </c>
-      <c r="E13" s="13">
+      <c r="F13" s="13">
         <f t="shared" si="0"/>
         <v>4.5233461769978575E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>7109.9260000000004</v>
+      </c>
+      <c r="E14" s="9">
         <v>86</v>
       </c>
-      <c r="D14" s="11">
-        <f>'$produced per state'!D14/1000</f>
-        <v>7109.9260000000004</v>
-      </c>
-      <c r="E14" s="13">
+      <c r="F14" s="13">
         <f t="shared" si="0"/>
         <v>1.2095765834974934E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>16096.415000000001</v>
+      </c>
+      <c r="E15" s="9">
         <v>403</v>
       </c>
-      <c r="D15" s="11">
-        <f>'$produced per state'!D15/1000</f>
-        <v>16096.415000000001</v>
-      </c>
-      <c r="E15" s="13">
+      <c r="F15" s="13">
         <f t="shared" si="0"/>
         <v>2.5036630827423374E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>10119.296</v>
+      </c>
+      <c r="E16" s="9">
         <v>127</v>
       </c>
-      <c r="D16" s="11">
-        <f>'$produced per state'!D16/1000</f>
-        <v>10119.296</v>
-      </c>
-      <c r="E16" s="13">
+      <c r="F16" s="13">
         <f t="shared" si="0"/>
         <v>1.2550280177593381E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>15355.365</v>
+      </c>
+      <c r="E17" s="9">
         <v>41</v>
       </c>
-      <c r="D17" s="11">
-        <f>'$produced per state'!D17/1000</f>
-        <v>15355.365</v>
-      </c>
-      <c r="E17" s="13">
+      <c r="F17" s="13">
         <f t="shared" si="0"/>
         <v>2.6700765497922061E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>5443.6369999999997</v>
+      </c>
+      <c r="E18" s="9">
         <v>80</v>
       </c>
-      <c r="D18" s="11">
-        <f>'$produced per state'!D18/1000</f>
-        <v>5443.6369999999997</v>
-      </c>
-      <c r="E18" s="13">
+      <c r="F18" s="13">
         <f t="shared" si="0"/>
         <v>1.4696057066259195E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>2823.3560000000002</v>
+      </c>
+      <c r="E19" s="9">
         <v>35</v>
       </c>
-      <c r="D19" s="11">
-        <f>'$produced per state'!D19/1000</f>
-        <v>2823.3560000000002</v>
-      </c>
-      <c r="E19" s="13">
+      <c r="F19" s="13">
         <f t="shared" si="0"/>
         <v>1.2396594690857262E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>386.87900000000002</v>
+      </c>
+      <c r="E20" s="9">
         <v>308</v>
       </c>
-      <c r="D20" s="11">
-        <f>'$produced per state'!D20/1000</f>
-        <v>386.87900000000002</v>
-      </c>
-      <c r="E20" s="13">
+      <c r="F20" s="13">
         <f t="shared" si="0"/>
         <v>0.796114547442482</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>2094.2469999999998</v>
+      </c>
+      <c r="E21" s="9">
         <v>98</v>
       </c>
-      <c r="D21" s="11">
-        <f>'$produced per state'!D21/1000</f>
-        <v>2094.2469999999998</v>
-      </c>
-      <c r="E21" s="13">
+      <c r="F21" s="13">
         <f t="shared" si="0"/>
         <v>4.6794862306117666E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <v>527.73</v>
+      </c>
+      <c r="E22" s="9">
         <v>50</v>
       </c>
-      <c r="D22" s="11">
-        <f>'$produced per state'!D22/1000</f>
-        <v>527.73</v>
-      </c>
-      <c r="E22" s="13">
+      <c r="F22" s="13">
         <f t="shared" si="0"/>
         <v>9.4745419058988492E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>7417.0379999999996</v>
+      </c>
+      <c r="E23" s="9">
         <v>654</v>
       </c>
-      <c r="D23" s="11">
-        <f>'$produced per state'!D23/1000</f>
-        <v>7417.0379999999996</v>
-      </c>
-      <c r="E23" s="13">
+      <c r="F23" s="13">
         <f t="shared" si="0"/>
         <v>8.8175360568464131E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>17094.651999999998</v>
+      </c>
+      <c r="E24" s="9">
         <v>241</v>
       </c>
-      <c r="D24" s="11">
-        <f>'$produced per state'!D24/1000</f>
-        <v>17094.651999999998</v>
-      </c>
-      <c r="E24" s="13">
+      <c r="F24" s="13">
         <f t="shared" si="0"/>
         <v>1.4097976372961557E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>8900.0779999999995</v>
+      </c>
+      <c r="E25" s="9">
         <v>172</v>
       </c>
-      <c r="D25" s="11">
-        <f>'$produced per state'!D25/1000</f>
-        <v>8900.0779999999995</v>
-      </c>
-      <c r="E25" s="13">
+      <c r="F25" s="13">
         <f t="shared" si="0"/>
         <v>1.9325673325559619E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>5206.8360000000002</v>
+      </c>
+      <c r="E26" s="9">
         <v>16</v>
       </c>
-      <c r="D26" s="11">
-        <f>'$produced per state'!D26/1000</f>
-        <v>5206.8360000000002</v>
-      </c>
-      <c r="E26" s="13">
+      <c r="F26" s="13">
         <f t="shared" si="0"/>
         <v>3.0728834171078172E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27">
+        <v>3677.6019999999999</v>
+      </c>
+      <c r="E27" s="9">
         <v>13</v>
       </c>
-      <c r="D27" s="11">
-        <f>'$produced per state'!D27/1000</f>
-        <v>3677.6019999999999</v>
-      </c>
-      <c r="E27" s="13">
+      <c r="F27" s="13">
         <f t="shared" si="0"/>
         <v>3.5349121519946966E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28">
+        <v>10536.714</v>
+      </c>
+      <c r="E28" s="9">
         <v>146</v>
       </c>
-      <c r="D28" s="11">
-        <f>'$produced per state'!D28/1000</f>
-        <v>10536.714</v>
-      </c>
-      <c r="E28" s="13">
+      <c r="F28" s="13">
         <f t="shared" si="0"/>
         <v>1.3856312319001921E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>8114.62</v>
+      </c>
+      <c r="E29" s="9">
         <v>72</v>
       </c>
-      <c r="D29" s="11">
-        <f>'$produced per state'!D29/1000</f>
-        <v>8114.62</v>
-      </c>
-      <c r="E29" s="13">
+      <c r="F29" s="13">
         <f t="shared" si="0"/>
         <v>8.8728738992090821E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30">
+        <v>21522.236000000001</v>
+      </c>
+      <c r="E30" s="9">
         <v>57</v>
       </c>
-      <c r="D30" s="11">
-        <f>'$produced per state'!D30/1000</f>
-        <v>21522.236000000001</v>
-      </c>
-      <c r="E30" s="13">
+      <c r="F30" s="13">
         <f t="shared" si="0"/>
         <v>2.6484237046745514E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31">
+        <v>209.93899999999999</v>
+      </c>
+      <c r="E31" s="9">
         <v>86</v>
       </c>
-      <c r="D31" s="11">
-        <f>'$produced per state'!D31/1000</f>
-        <v>209.93899999999999</v>
-      </c>
-      <c r="E31" s="13">
+      <c r="F31" s="13">
         <f t="shared" si="0"/>
         <v>0.40964280100410122</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32">
+        <v>1024.8389999999999</v>
+      </c>
+      <c r="E32" s="9">
         <v>572</v>
       </c>
-      <c r="D32" s="11">
-        <f>'$produced per state'!D32/1000</f>
-        <v>1024.8389999999999</v>
-      </c>
-      <c r="E32" s="13">
+      <c r="F32" s="13">
         <f t="shared" si="0"/>
         <v>0.55813644874951096</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33">
+        <v>2861.6869999999999</v>
+      </c>
+      <c r="E33" s="9">
         <v>117</v>
       </c>
-      <c r="D33" s="11">
-        <f>'$produced per state'!D33/1000</f>
-        <v>2861.6869999999999</v>
-      </c>
-      <c r="E33" s="13">
+      <c r="F33" s="13">
         <f t="shared" si="0"/>
         <v>4.088497449231869E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34">
+        <v>596.25</v>
+      </c>
+      <c r="E34" s="9">
         <v>33</v>
       </c>
-      <c r="D34" s="11">
-        <f>'$produced per state'!D34/1000</f>
-        <v>596.25</v>
-      </c>
-      <c r="E34" s="13">
+      <c r="F34" s="13">
         <f t="shared" si="0"/>
         <v>5.5345911949685536E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35">
+        <v>5052.76</v>
+      </c>
+      <c r="E35" s="9">
         <v>646</v>
       </c>
-      <c r="D35" s="11">
-        <f>'$produced per state'!D35/1000</f>
-        <v>5052.76</v>
-      </c>
-      <c r="E35" s="13">
+      <c r="F35" s="13">
         <f t="shared" si="0"/>
         <v>0.12785091712252314</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36">
+        <v>8364.9779999999992</v>
+      </c>
+      <c r="E36" s="9">
         <v>394</v>
       </c>
-      <c r="D36" s="11">
-        <f>'$produced per state'!D36/1000</f>
-        <v>8364.9779999999992</v>
-      </c>
-      <c r="E36" s="13">
+      <c r="F36" s="13">
         <f t="shared" si="0"/>
         <v>4.7101140014952823E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37">
+        <v>6189.7250000000004</v>
+      </c>
+      <c r="E37" s="9">
         <v>36</v>
       </c>
-      <c r="D37" s="11">
-        <f>'$produced per state'!D37/1000</f>
-        <v>6189.7250000000004</v>
-      </c>
-      <c r="E37" s="13">
+      <c r="F37" s="13">
         <f t="shared" si="0"/>
         <v>5.8160903755821135E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38">
+        <v>4593.5919999999996</v>
+      </c>
+      <c r="E38" s="9">
         <v>384</v>
       </c>
-      <c r="D38" s="11">
-        <f>'$produced per state'!D38/1000</f>
-        <v>4593.5919999999996</v>
-      </c>
-      <c r="E38" s="13">
+      <c r="F38" s="13">
         <f t="shared" si="0"/>
         <v>8.3594711937847344E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39">
+        <v>6346.683</v>
+      </c>
+      <c r="E39" s="9">
         <v>484</v>
       </c>
-      <c r="D39" s="11">
-        <f>'$produced per state'!D39/1000</f>
-        <v>6346.683</v>
-      </c>
-      <c r="E39" s="13">
+      <c r="F39" s="13">
         <f t="shared" si="0"/>
         <v>7.6260307943535235E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40">
+        <v>72.08</v>
+      </c>
+      <c r="E40" s="9">
         <v>34</v>
       </c>
-      <c r="D40" s="11">
-        <f>'$produced per state'!D40/1000</f>
-        <v>72.08</v>
-      </c>
-      <c r="E40" s="13">
+      <c r="F40" s="13">
         <f t="shared" si="0"/>
         <v>0.47169811320754718</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41">
+        <v>2119.4839999999999</v>
+      </c>
+      <c r="E41" s="9">
         <v>26</v>
       </c>
-      <c r="D41" s="11">
-        <f>'$produced per state'!D41/1000</f>
-        <v>2119.4839999999999</v>
-      </c>
-      <c r="E41" s="13">
+      <c r="F41" s="13">
         <f t="shared" si="0"/>
         <v>1.226713671818235E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="9">
-        <v>2</v>
-      </c>
-      <c r="D42" s="11">
-        <f>'$produced per state'!D42/1000</f>
+      <c r="C42" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42">
         <v>9351.7929999999997</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="9">
+        <v>2</v>
+      </c>
+      <c r="F42" s="13">
         <f t="shared" si="0"/>
         <v>2.1386273199160846E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43">
+        <v>3297.5479999999998</v>
+      </c>
+      <c r="E43" s="9">
         <v>101</v>
       </c>
-      <c r="D43" s="11">
-        <f>'$produced per state'!D43/1000</f>
-        <v>3297.5479999999998</v>
-      </c>
-      <c r="E43" s="13">
+      <c r="F43" s="13">
         <f t="shared" si="0"/>
         <v>3.0628818746535308E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44">
+        <v>20897.606</v>
+      </c>
+      <c r="E44" s="9">
         <v>765</v>
       </c>
-      <c r="D44" s="11">
-        <f>'$produced per state'!D44/1000</f>
-        <v>20897.606</v>
-      </c>
-      <c r="E44" s="13">
+      <c r="F44" s="13">
         <f t="shared" si="0"/>
         <v>3.6607063986181E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45">
+        <v>1657.8340000000001</v>
+      </c>
+      <c r="E45" s="9">
         <v>65</v>
       </c>
-      <c r="D45" s="11">
-        <f>'$produced per state'!D45/1000</f>
-        <v>1657.8340000000001</v>
-      </c>
-      <c r="E45" s="13">
+      <c r="F45" s="13">
         <f t="shared" si="0"/>
         <v>3.9207785580462215E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46">
+        <v>3334.1260000000002</v>
+      </c>
+      <c r="E46" s="9">
         <v>99</v>
       </c>
-      <c r="D46" s="11">
-        <f>'$produced per state'!D46/1000</f>
-        <v>3334.1260000000002</v>
-      </c>
-      <c r="E46" s="13">
+      <c r="F46" s="13">
         <f t="shared" si="0"/>
         <v>2.9692939019101257E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47">
+        <v>785.93399999999997</v>
+      </c>
+      <c r="E47" s="9">
         <v>32</v>
       </c>
-      <c r="D47" s="11">
-        <f>'$produced per state'!D47/1000</f>
-        <v>785.93399999999997</v>
-      </c>
-      <c r="E47" s="13">
+      <c r="F47" s="13">
         <f t="shared" si="0"/>
         <v>4.0715887084666141E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48">
+        <v>9917.7900000000009</v>
+      </c>
+      <c r="E48" s="9">
         <v>594</v>
       </c>
-      <c r="D48" s="11">
-        <f>'$produced per state'!D48/1000</f>
-        <v>9917.7900000000009</v>
-      </c>
-      <c r="E48" s="13">
+      <c r="F48" s="13">
         <f t="shared" si="0"/>
         <v>5.9892375216656128E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49">
+        <v>10759.486999999999</v>
+      </c>
+      <c r="E49" s="9">
         <v>512</v>
       </c>
-      <c r="D49" s="11">
-        <f>'$produced per state'!D49/1000</f>
-        <v>10759.486999999999</v>
-      </c>
-      <c r="E49" s="13">
+      <c r="F49" s="13">
         <f t="shared" si="0"/>
         <v>4.7585911856206531E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="9">
-        <v>2</v>
-      </c>
-      <c r="D50" s="11">
-        <f>'$produced per state'!D50/1000</f>
+      <c r="C50" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50">
         <v>690.10699999999997</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="9">
+        <v>2</v>
+      </c>
+      <c r="F50" s="13">
         <f t="shared" si="0"/>
         <v>2.8981013089274562E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51">
+        <v>1392.0260000000001</v>
+      </c>
+      <c r="E51" s="9">
         <v>4</v>
       </c>
-      <c r="D51" s="11">
-        <f>'$produced per state'!D51/1000</f>
-        <v>1392.0260000000001</v>
-      </c>
-      <c r="E51" s="13">
+      <c r="F51" s="13">
         <f t="shared" si="0"/>
         <v>2.8735095465170909E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
     </row>
   </sheetData>
+  <sortState ref="A2:F51">
+    <sortCondition ref="B2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M54"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="K1" s="23"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="25"/>
+    </row>
+    <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>32</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="15">
+        <v>44000</v>
+      </c>
+      <c r="F2" s="15">
+        <v>8712000</v>
+      </c>
+      <c r="G2" s="16">
+        <v>0.27</v>
+      </c>
+      <c r="H2" s="14">
+        <v>198</v>
+      </c>
+      <c r="I2" s="9">
+        <v>43</v>
+      </c>
+      <c r="J2" s="22">
+        <f>I2/F2</f>
+        <v>4.9357208448117539E-6</v>
+      </c>
+      <c r="K2" s="26"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+    </row>
+    <row r="3" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>44</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="14">
+        <v>620</v>
+      </c>
+      <c r="F3" s="15">
+        <v>900240</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
+        <v>1452</v>
+      </c>
+      <c r="I3" s="9">
+        <v>22</v>
+      </c>
+      <c r="J3" s="22">
+        <f t="shared" ref="J3:J51" si="0">I3/F3</f>
+        <v>2.4437927663734115E-5</v>
+      </c>
+      <c r="K3" s="27"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+    </row>
+    <row r="4" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>16</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="15">
+        <v>10200</v>
+      </c>
+      <c r="F4" s="15">
+        <v>26397600</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="H4" s="15">
+        <v>2588</v>
+      </c>
+      <c r="I4" s="9">
+        <v>27</v>
+      </c>
+      <c r="J4" s="22">
+        <f t="shared" si="0"/>
+        <v>1.0228202563869443E-6</v>
+      </c>
+      <c r="K4" s="27"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+    </row>
+    <row r="5" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>22</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="15">
+        <v>47500</v>
+      </c>
+      <c r="F5" s="15">
+        <v>14392500</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.43</v>
+      </c>
+      <c r="H5" s="14">
+        <v>303</v>
+      </c>
+      <c r="I5" s="9">
+        <v>89</v>
+      </c>
+      <c r="J5" s="22">
+        <f t="shared" si="0"/>
+        <v>6.1837762723640788E-6</v>
+      </c>
+      <c r="K5" s="27"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+    </row>
+    <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>15</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="15">
+        <v>77000</v>
+      </c>
+      <c r="F6" s="15">
+        <v>26719000</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0.27</v>
+      </c>
+      <c r="H6" s="14">
+        <v>347</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1634</v>
+      </c>
+      <c r="J6" s="22">
+        <f t="shared" si="0"/>
+        <v>6.1154983345185069E-5</v>
+      </c>
+      <c r="K6" s="26"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="24"/>
+    </row>
+    <row r="7" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>11</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="15">
+        <v>30900</v>
+      </c>
+      <c r="F7" s="15">
+        <v>30900000</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0.46</v>
+      </c>
+      <c r="H7" s="15">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="9">
+        <v>160</v>
+      </c>
+      <c r="J7" s="22">
+        <f t="shared" si="0"/>
+        <v>5.1779935275080903E-6</v>
+      </c>
+      <c r="K7" s="26"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+    </row>
+    <row r="8" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>49</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="15">
+        <v>4200</v>
+      </c>
+      <c r="F8" s="15">
+        <v>361200</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="H8" s="14">
+        <v>86</v>
+      </c>
+      <c r="I8" s="9">
+        <v>73</v>
+      </c>
+      <c r="J8" s="22">
+        <f t="shared" si="0"/>
+        <v>2.0210409745293465E-4</v>
+      </c>
+      <c r="K8" s="26"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+    </row>
+    <row r="9" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>46</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="15">
+        <v>2300</v>
+      </c>
+      <c r="F9" s="15">
+        <v>529000</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0.42</v>
+      </c>
+      <c r="H9" s="14">
+        <v>230</v>
+      </c>
+      <c r="I9" s="9">
+        <v>19</v>
+      </c>
+      <c r="J9" s="22">
+        <f t="shared" si="0"/>
+        <v>3.591682419659735E-5</v>
+      </c>
+      <c r="K9" s="26"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+    </row>
+    <row r="10" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>30</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="15">
+        <v>43000</v>
+      </c>
+      <c r="F10" s="15">
+        <v>10105000</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="14">
+        <v>235</v>
+      </c>
+      <c r="I10" s="9">
+        <v>474</v>
+      </c>
+      <c r="J10" s="22">
+        <f t="shared" si="0"/>
+        <v>4.6907471548738245E-5</v>
+      </c>
+      <c r="K10" s="27"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+    </row>
+    <row r="11" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>28</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="15">
+        <v>49000</v>
+      </c>
+      <c r="F11" s="15">
+        <v>10682000</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H11" s="14">
+        <v>218</v>
+      </c>
+      <c r="I11" s="9">
+        <v>203</v>
+      </c>
+      <c r="J11" s="22">
+        <f t="shared" si="0"/>
+        <v>1.9003931847968547E-5</v>
+      </c>
+      <c r="K11" s="27"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+    </row>
+    <row r="12" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>42</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="15">
+        <v>5500</v>
+      </c>
+      <c r="F12" s="15">
+        <v>1298000</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0.32</v>
+      </c>
+      <c r="H12" s="14">
+        <v>236</v>
+      </c>
+      <c r="I12" s="9">
+        <v>47</v>
+      </c>
+      <c r="J12" s="22">
+        <f t="shared" si="0"/>
+        <v>3.6209553158705702E-5</v>
+      </c>
+      <c r="K12" s="26"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+    </row>
+    <row r="13" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>24</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="15">
+        <v>25000</v>
+      </c>
+      <c r="F13" s="15">
+        <v>11800000</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="H13" s="14">
+        <v>472</v>
+      </c>
+      <c r="I13" s="9">
+        <v>120</v>
+      </c>
+      <c r="J13" s="22">
+        <f t="shared" si="0"/>
+        <v>1.0169491525423729E-5</v>
+      </c>
+      <c r="K13" s="27"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+    </row>
+    <row r="14" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="15">
+        <v>73000</v>
+      </c>
+      <c r="F14" s="15">
+        <v>27521000</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0.77</v>
+      </c>
+      <c r="H14" s="14">
+        <v>377</v>
+      </c>
+      <c r="I14" s="9">
+        <v>86</v>
+      </c>
+      <c r="J14" s="22">
+        <f t="shared" si="0"/>
+        <v>3.1248864503470079E-6</v>
+      </c>
+      <c r="K14" s="27"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+    </row>
+    <row r="15" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>20</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="15">
+        <v>59300</v>
+      </c>
+      <c r="F15" s="15">
+        <v>15002900</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="H15" s="14">
+        <v>253</v>
+      </c>
+      <c r="I15" s="9">
+        <v>403</v>
+      </c>
+      <c r="J15" s="22">
+        <f t="shared" si="0"/>
+        <v>2.6861473448466628E-5</v>
+      </c>
+      <c r="K15" s="27"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+    </row>
+    <row r="16" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>10</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="15">
+        <v>89700</v>
+      </c>
+      <c r="F16" s="15">
+        <v>31664100</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0.89</v>
+      </c>
+      <c r="H16" s="14">
+        <v>353</v>
+      </c>
+      <c r="I16" s="9">
+        <v>127</v>
+      </c>
+      <c r="J16" s="22">
+        <f t="shared" si="0"/>
+        <v>4.0108514058507902E-6</v>
+      </c>
+      <c r="K16" s="27"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+    </row>
+    <row r="17" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>3</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="15">
+        <v>64500</v>
+      </c>
+      <c r="F17" s="15">
+        <v>47214000</v>
+      </c>
+      <c r="G17" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="H17" s="14">
+        <v>732</v>
+      </c>
+      <c r="I17" s="9">
+        <v>41</v>
+      </c>
+      <c r="J17" s="22">
+        <f t="shared" si="0"/>
+        <v>8.6838649553098658E-7</v>
+      </c>
+      <c r="K17" s="26"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+    </row>
+    <row r="18" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>23</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="15">
+        <v>85000</v>
+      </c>
+      <c r="F18" s="15">
+        <v>13770000</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0.54</v>
+      </c>
+      <c r="H18" s="14">
+        <v>162</v>
+      </c>
+      <c r="I18" s="9">
+        <v>80</v>
+      </c>
+      <c r="J18" s="22">
+        <f t="shared" si="0"/>
+        <v>5.809731299927378E-6</v>
+      </c>
+      <c r="K18" s="27"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+    </row>
+    <row r="19" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>34</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="15">
+        <v>27200</v>
+      </c>
+      <c r="F19" s="15">
+        <v>7860800</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H19" s="14">
+        <v>289</v>
+      </c>
+      <c r="I19" s="9">
+        <v>35</v>
+      </c>
+      <c r="J19" s="22">
+        <f t="shared" si="0"/>
+        <v>4.4524730307347849E-6</v>
+      </c>
+      <c r="K19" s="27"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+    </row>
+    <row r="20" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>41</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="15">
+        <v>7200</v>
+      </c>
+      <c r="F20" s="15">
+        <v>1368000</v>
+      </c>
+      <c r="G20" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H20" s="14">
+        <v>190</v>
+      </c>
+      <c r="I20" s="9">
+        <v>308</v>
+      </c>
+      <c r="J20" s="22">
+        <f t="shared" si="0"/>
+        <v>2.2514619883040935E-4</v>
+      </c>
+      <c r="K20" s="27"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+    </row>
+    <row r="21" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>40</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="15">
+        <v>12100</v>
+      </c>
+      <c r="F21" s="15">
+        <v>2044900</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="H21" s="14">
+        <v>169</v>
+      </c>
+      <c r="I21" s="9">
+        <v>98</v>
+      </c>
+      <c r="J21" s="22">
+        <f t="shared" si="0"/>
+        <v>4.7924103868159811E-5</v>
+      </c>
+      <c r="K21" s="27"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+    </row>
+    <row r="22" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>47</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="15">
+        <v>6100</v>
+      </c>
+      <c r="F22" s="15">
+        <v>518500</v>
+      </c>
+      <c r="G22" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="H22" s="14">
+        <v>85</v>
+      </c>
+      <c r="I22" s="9">
+        <v>50</v>
+      </c>
+      <c r="J22" s="22">
+        <f t="shared" si="0"/>
+        <v>9.6432015429122472E-5</v>
+      </c>
+      <c r="K22" s="27"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+    </row>
+    <row r="23" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>29</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="15">
+        <v>53200</v>
+      </c>
+      <c r="F23" s="15">
+        <v>10108000</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H23" s="14">
+        <v>190</v>
+      </c>
+      <c r="I23" s="9">
+        <v>654</v>
+      </c>
+      <c r="J23" s="22">
+        <f t="shared" si="0"/>
+        <v>6.4701226751088246E-5</v>
+      </c>
+      <c r="K23" s="27"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+    </row>
+    <row r="24" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>13</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="15">
+        <v>79800</v>
+      </c>
+      <c r="F24" s="15">
+        <v>27610800</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0.54</v>
+      </c>
+      <c r="H24" s="14">
+        <v>346</v>
+      </c>
+      <c r="I24" s="9">
+        <v>241</v>
+      </c>
+      <c r="J24" s="22">
+        <f t="shared" si="0"/>
+        <v>8.7284685702696043E-6</v>
+      </c>
+      <c r="K24" s="27"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+    </row>
+    <row r="25" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>27</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="15">
+        <v>42200</v>
+      </c>
+      <c r="F25" s="15">
+        <v>11056400</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0.37</v>
+      </c>
+      <c r="H25" s="14">
+        <v>262</v>
+      </c>
+      <c r="I25" s="9">
+        <v>172</v>
+      </c>
+      <c r="J25" s="22">
+        <f t="shared" si="0"/>
+        <v>1.5556600701855938E-5</v>
+      </c>
+      <c r="K25" s="27"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+    </row>
+    <row r="26" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>12</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="15">
+        <v>106000</v>
+      </c>
+      <c r="F26" s="15">
+        <v>30104000</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0.68</v>
+      </c>
+      <c r="H26" s="14">
+        <v>284</v>
+      </c>
+      <c r="I26" s="9">
+        <v>16</v>
+      </c>
+      <c r="J26" s="22">
+        <f t="shared" si="0"/>
+        <v>5.3149083178315173E-7</v>
+      </c>
+      <c r="K26" s="27"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+    </row>
+    <row r="27" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>2</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="15">
+        <v>28000</v>
+      </c>
+      <c r="F27" s="15">
+        <v>60088000</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="H27" s="15">
+        <v>2146</v>
+      </c>
+      <c r="I27" s="9">
+        <v>13</v>
+      </c>
+      <c r="J27" s="22">
+        <f t="shared" si="0"/>
+        <v>2.1634935428038875E-7</v>
+      </c>
+      <c r="K27" s="27"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+    </row>
+    <row r="28" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>4</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="15">
+        <v>48300</v>
+      </c>
+      <c r="F28" s="15">
+        <v>45885000</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0.93</v>
+      </c>
+      <c r="H28" s="14">
+        <v>950</v>
+      </c>
+      <c r="I28" s="9">
+        <v>146</v>
+      </c>
+      <c r="J28" s="22">
+        <f t="shared" si="0"/>
+        <v>3.1818677127601614E-6</v>
+      </c>
+      <c r="K28" s="27"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+    </row>
+    <row r="29" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>37</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="15">
+        <v>3000</v>
+      </c>
+      <c r="F29" s="15">
+        <v>6300000</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="H29" s="15">
+        <v>2100</v>
+      </c>
+      <c r="I29" s="9">
+        <v>72</v>
+      </c>
+      <c r="J29" s="22">
+        <f t="shared" si="0"/>
+        <v>1.1428571428571429E-5</v>
+      </c>
+      <c r="K29" s="27"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+    </row>
+    <row r="30" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>48</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="15">
+        <v>3400</v>
+      </c>
+      <c r="F30" s="15">
+        <v>448800</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="H30" s="14">
+        <v>132</v>
+      </c>
+      <c r="I30" s="9">
+        <v>57</v>
+      </c>
+      <c r="J30" s="22">
+        <f t="shared" si="0"/>
+        <v>1.270053475935829E-4</v>
+      </c>
+      <c r="K30" s="27"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+    </row>
+    <row r="31" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>45</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="15">
+        <v>9900</v>
+      </c>
+      <c r="F31" s="15">
+        <v>821700</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0.17</v>
+      </c>
+      <c r="H31" s="14">
+        <v>83</v>
+      </c>
+      <c r="I31" s="9">
+        <v>86</v>
+      </c>
+      <c r="J31" s="22">
+        <f t="shared" si="0"/>
+        <v>1.046610685164902E-4</v>
+      </c>
+      <c r="K31" s="27"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+    </row>
+    <row r="32" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>5</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="15">
+        <v>17500</v>
+      </c>
+      <c r="F32" s="15">
+        <v>44695000</v>
+      </c>
+      <c r="G32" s="16">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H32" s="15">
+        <v>2554</v>
+      </c>
+      <c r="I32" s="9">
+        <v>572</v>
+      </c>
+      <c r="J32" s="22">
+        <f t="shared" si="0"/>
+        <v>1.2797852108736996E-5</v>
+      </c>
+      <c r="K32" s="27"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+    </row>
+    <row r="33" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>36</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="15">
+        <v>36000</v>
+      </c>
+      <c r="F33" s="15">
+        <v>7596000</v>
+      </c>
+      <c r="G33" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="H33" s="14">
+        <v>211</v>
+      </c>
+      <c r="I33" s="9">
+        <v>117</v>
+      </c>
+      <c r="J33" s="22">
+        <f t="shared" si="0"/>
+        <v>1.5402843601895736E-5</v>
+      </c>
+      <c r="K33" s="27"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+    </row>
+    <row r="34" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>31</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="15">
+        <v>52000</v>
+      </c>
+      <c r="F34" s="15">
+        <v>8996000</v>
+      </c>
+      <c r="G34" s="16">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H34" s="14">
+        <v>173</v>
+      </c>
+      <c r="I34" s="9">
+        <v>33</v>
+      </c>
+      <c r="J34" s="22">
+        <f t="shared" si="0"/>
+        <v>3.6682970208981771E-6</v>
+      </c>
+      <c r="K34" s="27"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+    </row>
+    <row r="35" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
+        <v>7</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="15">
+        <v>30300</v>
+      </c>
+      <c r="F35" s="15">
+        <v>39390000</v>
+      </c>
+      <c r="G35" s="16">
+        <v>0.89</v>
+      </c>
+      <c r="H35" s="15">
+        <v>1300</v>
+      </c>
+      <c r="I35" s="9">
+        <v>646</v>
+      </c>
+      <c r="J35" s="22">
+        <f t="shared" si="0"/>
+        <v>1.6400101548616401E-5</v>
+      </c>
+      <c r="K35" s="27"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+    </row>
+    <row r="36" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
+        <v>21</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="15">
+        <v>77300</v>
+      </c>
+      <c r="F36" s="15">
+        <v>14609700</v>
+      </c>
+      <c r="G36" s="16">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H36" s="14">
+        <v>189</v>
+      </c>
+      <c r="I36" s="9">
+        <v>394</v>
+      </c>
+      <c r="J36" s="22">
+        <f t="shared" si="0"/>
+        <v>2.69683840188368E-5</v>
+      </c>
+      <c r="K36" s="27"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+    </row>
+    <row r="37" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
+        <v>9</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="15">
+        <v>83500</v>
+      </c>
+      <c r="F37" s="15">
+        <v>33734000</v>
+      </c>
+      <c r="G37" s="16">
+        <v>0.77</v>
+      </c>
+      <c r="H37" s="14">
+        <v>404</v>
+      </c>
+      <c r="I37" s="9">
+        <v>36</v>
+      </c>
+      <c r="J37" s="22">
+        <f t="shared" si="0"/>
+        <v>1.0671725855220252E-6</v>
+      </c>
+      <c r="K37" s="27"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+    </row>
+    <row r="38" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
+        <v>17</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="15">
+        <v>40000</v>
+      </c>
+      <c r="F38" s="15">
+        <v>17200000</v>
+      </c>
+      <c r="G38" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H38" s="14">
+        <v>430</v>
+      </c>
+      <c r="I38" s="9">
+        <v>384</v>
+      </c>
+      <c r="J38" s="22">
+        <f t="shared" si="0"/>
+        <v>2.2325581395348837E-5</v>
+      </c>
+      <c r="K38" s="26"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+    </row>
+    <row r="39" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
+        <v>35</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="15">
+        <v>58200</v>
+      </c>
+      <c r="F39" s="15">
+        <v>7682400</v>
+      </c>
+      <c r="G39" s="16">
+        <v>0.27</v>
+      </c>
+      <c r="H39" s="14">
+        <v>132</v>
+      </c>
+      <c r="I39" s="9">
+        <v>484</v>
+      </c>
+      <c r="J39" s="22">
+        <f t="shared" si="0"/>
+        <v>6.3001145475372283E-5</v>
+      </c>
+      <c r="K39" s="27"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+    </row>
+    <row r="40" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <v>50</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="14">
+        <v>850</v>
+      </c>
+      <c r="F40" s="15">
+        <v>60350</v>
+      </c>
+      <c r="G40" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="H40" s="14">
+        <v>71</v>
+      </c>
+      <c r="I40" s="9">
+        <v>34</v>
+      </c>
+      <c r="J40" s="22">
+        <f t="shared" si="0"/>
+        <v>5.6338028169014088E-4</v>
+      </c>
+      <c r="K40" s="27"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+    </row>
+    <row r="41" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <v>38</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="15">
+        <v>24400</v>
+      </c>
+      <c r="F41" s="15">
+        <v>4855600</v>
+      </c>
+      <c r="G41" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="H41" s="14">
+        <v>199</v>
+      </c>
+      <c r="I41" s="9">
+        <v>26</v>
+      </c>
+      <c r="J41" s="22">
+        <f t="shared" si="0"/>
+        <v>5.354642062772881E-6</v>
+      </c>
+      <c r="K41" s="27"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+    </row>
+    <row r="42" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>6</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="15">
+        <v>31600</v>
+      </c>
+      <c r="F42" s="15">
+        <v>43797600</v>
+      </c>
+      <c r="G42" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="H42" s="15">
+        <v>1386</v>
+      </c>
+      <c r="I42" s="9">
+        <v>2</v>
+      </c>
+      <c r="J42" s="22">
+        <f t="shared" si="0"/>
+        <v>4.5664602626627944E-8</v>
+      </c>
+      <c r="K42" s="27"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+    </row>
+    <row r="43" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <v>26</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="15">
+        <v>85000</v>
+      </c>
+      <c r="F43" s="15">
+        <v>11560000</v>
+      </c>
+      <c r="G43" s="16">
+        <v>0.44</v>
+      </c>
+      <c r="H43" s="14">
+        <v>136</v>
+      </c>
+      <c r="I43" s="9">
+        <v>101</v>
+      </c>
+      <c r="J43" s="22">
+        <f t="shared" si="0"/>
+        <v>8.737024221453288E-6</v>
+      </c>
+      <c r="K43" s="27"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+    </row>
+    <row r="44" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
+        <v>1</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="15">
+        <v>229000</v>
+      </c>
+      <c r="F44" s="15">
+        <v>130072000</v>
+      </c>
+      <c r="G44" s="16">
+        <v>0.78</v>
+      </c>
+      <c r="H44" s="14">
+        <v>568</v>
+      </c>
+      <c r="I44" s="9">
+        <v>765</v>
+      </c>
+      <c r="J44" s="22">
+        <f t="shared" si="0"/>
+        <v>5.8813580170982226E-6</v>
+      </c>
+      <c r="K44" s="27"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+    </row>
+    <row r="45" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
+        <v>25</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="15">
+        <v>15300</v>
+      </c>
+      <c r="F45" s="15">
+        <v>11597400</v>
+      </c>
+      <c r="G45" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="H45" s="14">
+        <v>758</v>
+      </c>
+      <c r="I45" s="9">
+        <v>65</v>
+      </c>
+      <c r="J45" s="22">
+        <f t="shared" si="0"/>
+        <v>5.6047045027333716E-6</v>
+      </c>
+      <c r="K45" s="26"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+    </row>
+    <row r="46" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <v>43</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="15">
+        <v>6400</v>
+      </c>
+      <c r="F46" s="15">
+        <v>1248000</v>
+      </c>
+      <c r="G46" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="H46" s="14">
+        <v>195</v>
+      </c>
+      <c r="I46" s="9">
+        <v>99</v>
+      </c>
+      <c r="J46" s="22">
+        <f t="shared" si="0"/>
+        <v>7.9326923076923078E-5</v>
+      </c>
+      <c r="K46" s="27"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+    </row>
+    <row r="47" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
+        <v>33</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="15">
+        <v>47500</v>
+      </c>
+      <c r="F47" s="15">
+        <v>8597500</v>
+      </c>
+      <c r="G47" s="16">
+        <v>0.34</v>
+      </c>
+      <c r="H47" s="14">
+        <v>181</v>
+      </c>
+      <c r="I47" s="9">
+        <v>32</v>
+      </c>
+      <c r="J47" s="22">
+        <f t="shared" si="0"/>
+        <v>3.7220122128525733E-6</v>
+      </c>
+      <c r="K47" s="27"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+    </row>
+    <row r="48" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
+        <v>19</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="15">
+        <v>35000</v>
+      </c>
+      <c r="F48" s="15">
+        <v>15190000</v>
+      </c>
+      <c r="G48" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="H48" s="14">
+        <v>434</v>
+      </c>
+      <c r="I48" s="9">
+        <v>594</v>
+      </c>
+      <c r="J48" s="22">
+        <f t="shared" si="0"/>
+        <v>3.9104674127715601E-5</v>
+      </c>
+      <c r="K48" s="27"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+    </row>
+    <row r="49" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <v>39</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="15">
+        <v>20800</v>
+      </c>
+      <c r="F49" s="15">
+        <v>3598400</v>
+      </c>
+      <c r="G49" s="16">
+        <v>0.23</v>
+      </c>
+      <c r="H49" s="14">
+        <v>173</v>
+      </c>
+      <c r="I49" s="9">
+        <v>512</v>
+      </c>
+      <c r="J49" s="22">
+        <f t="shared" si="0"/>
+        <v>1.4228546020453534E-4</v>
+      </c>
+      <c r="K49" s="27"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+    </row>
+    <row r="50" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
+        <v>18</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="15">
+        <v>76500</v>
+      </c>
+      <c r="F50" s="15">
+        <v>15529500</v>
+      </c>
+      <c r="G50" s="16">
+        <v>0.45</v>
+      </c>
+      <c r="H50" s="14">
+        <v>203</v>
+      </c>
+      <c r="I50" s="9">
+        <v>2</v>
+      </c>
+      <c r="J50" s="22">
+        <f t="shared" si="0"/>
+        <v>1.2878714704272514E-7</v>
+      </c>
+      <c r="K50" s="27"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+    </row>
+    <row r="51" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
+        <v>8</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="15">
+        <v>9200</v>
+      </c>
+      <c r="F51" s="15">
+        <v>34435600</v>
+      </c>
+      <c r="G51" s="16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H51" s="15">
+        <v>3743</v>
+      </c>
+      <c r="I51" s="9">
+        <v>4</v>
+      </c>
+      <c r="J51" s="22">
+        <f t="shared" si="0"/>
+        <v>1.161588588553706E-7</v>
+      </c>
+      <c r="K51" s="27"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I52" s="9"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I53" s="9"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I54" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>